--- a/data/trans_bre/P30_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,08%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>-18,55%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-34,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 16,99</t>
+          <t>-22,38; 15,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 18,26</t>
+          <t>-29,35; 15,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 23,08</t>
+          <t>-32,17; 9,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 120,45</t>
+          <t>-26,01; 18,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 63,9</t>
+          <t>-69,26; 175,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 118,3</t>
+          <t>-56,7; 74,61</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-69,99; 45,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-53,39; 86,57</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>12,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,08%</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>112,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53,78%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 11,3</t>
+          <t>-6,76; 26,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 23,85</t>
+          <t>1,48; 33,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 16,18</t>
+          <t>-3,69; 32,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 71,27</t>
+          <t>-7,15; 34,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 170,98</t>
+          <t>-28,26; 373,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 93,47</t>
+          <t>5,48; 500,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; 333,97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,58; 308,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,01</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-22,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-32,51%</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,41%</t>
+          <t>-24,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-52,15%</t>
+          <t>-18,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-66,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 2,93</t>
+          <t>-22,06; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 3,75</t>
+          <t>-19,48; 10,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-32,58; -5,31</t>
+          <t>-35,5; -8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 15,79</t>
+          <t>-16,09; 10,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,78; 15,64</t>
+          <t>-53,55; 37,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,58; -20,32</t>
+          <t>-48,82; 45,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-84,37; -31,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-57,09; 82,34</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,93%</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-32,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,9%</t>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-11,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-34,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 3,78</t>
+          <t>-20,39; 3,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 8,61</t>
+          <t>-11,49; 11,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 3,51</t>
+          <t>-13,45; 9,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 27,57</t>
+          <t>-20,69; 3,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 57,39</t>
+          <t>-64,1; 24,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,51; 22,82</t>
+          <t>-49,11; 98,83</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-53,24; 81,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-62,07; 23,79</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-11,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-20,35%</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-43,56%</t>
+          <t>-35,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,97%</t>
+          <t>-42,13%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-70,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-44,56%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 6,23</t>
+          <t>-16,69; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 1,48</t>
+          <t>-18,19; 5,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 5,74</t>
+          <t>-21,74; -0,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 65,45</t>
+          <t>-23,8; 4,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,04; 15,42</t>
+          <t>-80,25; 82,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 68,5</t>
+          <t>-81,87; 53,38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 18,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-82,76; 39,48</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>105,42%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-45,65%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 19,82</t>
+          <t>-10,14; 12,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 8,7</t>
+          <t>-16,35; 5,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 12,46</t>
+          <t>-9,46; 13,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 609,59</t>
+          <t>-14,14; 33,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,21; 210,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 232,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-8,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-29,22%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-9,33%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,99</t>
+          <t>-8,45; 4,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 2,55</t>
+          <t>-6,47; 5,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,26</t>
+          <t>-12,97; -0,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 11,82</t>
+          <t>-9,48; 5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 11,63</t>
+          <t>-34,71; 25,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 2,12</t>
+          <t>-26,6; 34,08</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; -2,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 29,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P30_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-12,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-6,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,55%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-34,56%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.68736401630383</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.066300288167071</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-13.37350873621217</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.192754318993046</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1970389571142553</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1695327585958561</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.359966386763122</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.09199350114069392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,38; 15,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,35; 15,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-32,17; 9,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,01; 18,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-69,26; 175,97</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-56,7; 74,61</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-69,99; 45,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-53,39; 86,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.69666397797936</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-28.23875297705852</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-34.77745048362043</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-27.516121704928</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7226758935191816</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5807558247908003</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6999146984166228</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5459602565723676</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.71308100382598</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.69368947299292</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.826185522464529</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.56809824834092</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.452886487751114</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.8856076885235431</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4537777363896565</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8464200030535375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>17,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,1</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>54,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>112,73%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,65%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>53,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 26,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 33,44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 32,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 34,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-28,26; 373,29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 500,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 333,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,58; 308,43</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.991893048729358</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.54462017959539</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.1818461239155</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.1710356853343</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6025325683495549</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.121033558296884</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6510768237101214</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5450695827159852</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-22,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-24,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-18,46%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-66,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-10,26%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.189295824879125</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.01625188200751609</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.35475932243019</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.355412578894851</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2807333363896699</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.001920837993999576</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1665711924438625</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2118914649070236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,06; 6,97</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-19,48; 10,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-35,5; -8,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 10,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-53,55; 37,39</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-48,82; 45,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-84,37; -31,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-57,09; 82,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.75351178325743</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>31.89539594049483</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>30.98645293753414</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>33.74272905821464</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.713796118572788</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>4.763774545138584</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.196535859889193</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.392245661751191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,71</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-8,82</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-32,22%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-11,62%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-34,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.124218747661565</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.900777893017882</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-23.44689802778374</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.598495639699</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2438952347184472</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1330443157101941</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6900624869601268</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1235626529879826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,39; 3,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; 11,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; 9,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-20,69; 3,24</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-64,1; 24,61</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-49,11; 98,83</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-53,24; 81,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-62,07; 23,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-23.95973297844978</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.87099011101003</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-37.2061109258366</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.52866889331731</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5506904467119352</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4763930887505275</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8558663933711985</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5912248153984007</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.22905700840885</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.92573100558389</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.384545289748019</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.871668017221479</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.3427274453516642</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.5201869565393359</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.3454579867174669</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7880007371509794</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-11,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,01</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-35,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-42,13%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-70,84%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-44,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,69; 6,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,19; 5,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,74; -0,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-23,8; 4,49</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-80,25; 82,23</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-81,87; 53,38</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 18,08</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-82,76; 39,48</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-6.284289266995971</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.469976786615015</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.633157459115651</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-9.017511087447772</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2779107632871712</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.08105796202002288</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1365435342137487</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3493474465805098</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-45,65%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-7,82%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-18.79557167213563</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.82572842885859</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.84807925132532</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-20.73536057769772</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6233282840121966</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5186861870140966</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5385265493337545</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6234983914741311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 12,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 5,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 13,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 33,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.034296089870978</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.24885819930467</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.629672658000512</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.553964981363573</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.3489506144296381</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9066432244711276</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7811615074468118</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2196005000553061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,8%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-29,22%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-9,33%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.925846238556471</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-7.02953805357507</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-9.812292366687876</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-11.48477548781596</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.3249019706058212</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.4224600013778454</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.6511856405327195</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.5063465374668915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 4,17</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 5,97</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -0,35</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 5,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-34,71; 25,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 34,08</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-50,5; -2,45</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-35,6; 29,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.58920952302309</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-17.80219982763217</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.83986561409768</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-25.39183065755887</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.7881608963320444</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8258496262976628</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.8422658151645822</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.920985406803147</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>5.232391619069617</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.881328395722847</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2.144540637514098</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.9388490363451732</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.4948580626933116</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.4899598097542421</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.3262081282570688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.896941680610358</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.676630802146108</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.6383512151282772</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.422685457086112</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2261287162351327</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.4765631236240403</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1303824410171443</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.1184252913800301</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-18.35170873500181</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-16.30913953531513</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-7.598466665516845</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-14.40229576510739</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.36989163366561</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.175610267043855</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>18.27607770449913</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>28.28935849723522</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.92157115037252</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.09918759538806166</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-6.842294037994814</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-2.831916999823819</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.09494157726932301</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.004782193613232008</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.3036422544214005</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1213017983967976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.563110053499633</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.385339607279968</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-13.54034117345362</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-10.12611392579332</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.3450994560769943</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2629951437451317</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.5128467832859581</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.37839699412509</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.219303378297719</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.022421445321979</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.6166930536847355</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.391649015331067</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2517074989430331</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.3407186773323516</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.03115849453178171</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.2153796449330485</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1309,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
